--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Grn-Tnfrsf1a.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Grn-Tnfrsf1a.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>41.7016452208196</v>
+        <v>66.85111099999999</v>
       </c>
       <c r="H2">
-        <v>41.7016452208196</v>
+        <v>200.553333</v>
       </c>
       <c r="I2">
-        <v>0.0854950055767216</v>
+        <v>0.1215550702639512</v>
       </c>
       <c r="J2">
-        <v>0.0854950055767216</v>
+        <v>0.1215550702639512</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>45.8488916761922</v>
+        <v>62.49926866666667</v>
       </c>
       <c r="N2">
-        <v>45.8488916761922</v>
+        <v>187.497806</v>
       </c>
       <c r="O2">
-        <v>0.3131541260963121</v>
+        <v>0.364999568828264</v>
       </c>
       <c r="P2">
-        <v>0.3131541260963121</v>
+        <v>0.364999568828264</v>
       </c>
       <c r="Q2">
-        <v>1911.974214448356</v>
+        <v>4178.145547054155</v>
       </c>
       <c r="R2">
-        <v>1911.974214448356</v>
+        <v>37603.3099234874</v>
       </c>
       <c r="S2">
-        <v>0.02677311375697758</v>
+        <v>0.04436754823523154</v>
       </c>
       <c r="T2">
-        <v>0.02677311375697758</v>
+        <v>0.04436754823523154</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>41.7016452208196</v>
+        <v>66.85111099999999</v>
       </c>
       <c r="H3">
-        <v>41.7016452208196</v>
+        <v>200.553333</v>
       </c>
       <c r="I3">
-        <v>0.0854950055767216</v>
+        <v>0.1215550702639512</v>
       </c>
       <c r="J3">
-        <v>0.0854950055767216</v>
+        <v>0.1215550702639512</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>43.626517030976</v>
+        <v>43.717953</v>
       </c>
       <c r="N3">
-        <v>43.626517030976</v>
+        <v>131.153859</v>
       </c>
       <c r="O3">
-        <v>0.297975006941232</v>
+        <v>0.2553155314530077</v>
       </c>
       <c r="P3">
-        <v>0.297975006941232</v>
+        <v>0.2553155314530077</v>
       </c>
       <c r="Q3">
-        <v>1819.297535445805</v>
+        <v>2922.593728695783</v>
       </c>
       <c r="R3">
-        <v>1819.297535445805</v>
+        <v>26303.34355826205</v>
       </c>
       <c r="S3">
-        <v>0.02547537488016428</v>
+        <v>0.0310348973652484</v>
       </c>
       <c r="T3">
-        <v>0.02547537488016428</v>
+        <v>0.0310348973652484</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>41.7016452208196</v>
+        <v>66.85111099999999</v>
       </c>
       <c r="H4">
-        <v>41.7016452208196</v>
+        <v>200.553333</v>
       </c>
       <c r="I4">
-        <v>0.0854950055767216</v>
+        <v>0.1215550702639512</v>
       </c>
       <c r="J4">
-        <v>0.0854950055767216</v>
+        <v>0.1215550702639512</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>38.1103501560032</v>
+        <v>45.87732766666667</v>
       </c>
       <c r="N4">
-        <v>38.1103501560032</v>
+        <v>137.631983</v>
       </c>
       <c r="O4">
-        <v>0.2602988417389547</v>
+        <v>0.2679264121734788</v>
       </c>
       <c r="P4">
-        <v>0.2602988417389547</v>
+        <v>0.2679264121734788</v>
       </c>
       <c r="Q4">
-        <v>1589.264301446852</v>
+        <v>3066.950324227704</v>
       </c>
       <c r="R4">
-        <v>1589.264301446852</v>
+        <v>27602.55291804934</v>
       </c>
       <c r="S4">
-        <v>0.02225425092608611</v>
+        <v>0.03256781385731557</v>
       </c>
       <c r="T4">
-        <v>0.02225425092608611</v>
+        <v>0.03256781385731557</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>41.7016452208196</v>
+        <v>66.85111099999999</v>
       </c>
       <c r="H5">
-        <v>41.7016452208196</v>
+        <v>200.553333</v>
       </c>
       <c r="I5">
-        <v>0.0854950055767216</v>
+        <v>0.1215550702639512</v>
       </c>
       <c r="J5">
-        <v>0.0854950055767216</v>
+        <v>0.1215550702639512</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>18.8242286012478</v>
+        <v>19.136526</v>
       </c>
       <c r="N5">
-        <v>18.8242286012478</v>
+        <v>57.409578</v>
       </c>
       <c r="O5">
-        <v>0.1285720252235012</v>
+        <v>0.1117584875452494</v>
       </c>
       <c r="P5">
-        <v>0.1285720252235012</v>
+        <v>0.1117584875452494</v>
       </c>
       <c r="Q5">
-        <v>785.0013026848409</v>
+        <v>1279.298023780386</v>
       </c>
       <c r="R5">
-        <v>785.0013026848409</v>
+        <v>11513.68221402347</v>
       </c>
       <c r="S5">
-        <v>0.01099226601349363</v>
+        <v>0.01358481080615571</v>
       </c>
       <c r="T5">
-        <v>0.01099226601349363</v>
+        <v>0.01358481080615571</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>99.8627212335367</v>
+        <v>99.86393233333332</v>
       </c>
       <c r="H6">
-        <v>99.8627212335367</v>
+        <v>299.591797</v>
       </c>
       <c r="I6">
-        <v>0.204734462239042</v>
+        <v>0.1815821327429069</v>
       </c>
       <c r="J6">
-        <v>0.204734462239042</v>
+        <v>0.1815821327429069</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>45.8488916761922</v>
+        <v>62.49926866666667</v>
       </c>
       <c r="N6">
-        <v>45.8488916761922</v>
+        <v>187.497806</v>
       </c>
       <c r="O6">
-        <v>0.3131541260963121</v>
+        <v>0.364999568828264</v>
       </c>
       <c r="P6">
-        <v>0.3131541260963121</v>
+        <v>0.364999568828264</v>
       </c>
       <c r="Q6">
-        <v>4578.595088326203</v>
+        <v>6241.42273701082</v>
       </c>
       <c r="R6">
-        <v>4578.595088326203</v>
+        <v>56172.80463309739</v>
       </c>
       <c r="S6">
-        <v>0.06411344160426559</v>
+        <v>0.06627740015807762</v>
       </c>
       <c r="T6">
-        <v>0.06411344160426559</v>
+        <v>0.06627740015807762</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>99.8627212335367</v>
+        <v>99.86393233333332</v>
       </c>
       <c r="H7">
-        <v>99.8627212335367</v>
+        <v>299.591797</v>
       </c>
       <c r="I7">
-        <v>0.204734462239042</v>
+        <v>0.1815821327429069</v>
       </c>
       <c r="J7">
-        <v>0.204734462239042</v>
+        <v>0.1815821327429069</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>43.626517030976</v>
+        <v>43.717953</v>
       </c>
       <c r="N7">
-        <v>43.626517030976</v>
+        <v>131.153859</v>
       </c>
       <c r="O7">
-        <v>0.297975006941232</v>
+        <v>0.2553155314530077</v>
       </c>
       <c r="P7">
-        <v>0.297975006941232</v>
+        <v>0.2553155314530077</v>
       </c>
       <c r="Q7">
-        <v>4356.662708654498</v>
+        <v>4365.846700143847</v>
       </c>
       <c r="R7">
-        <v>4356.662708654498</v>
+        <v>39292.62030129463</v>
       </c>
       <c r="S7">
-        <v>0.06100575280678792</v>
+        <v>0.04636073872362587</v>
       </c>
       <c r="T7">
-        <v>0.06100575280678792</v>
+        <v>0.04636073872362587</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>99.8627212335367</v>
+        <v>99.86393233333332</v>
       </c>
       <c r="H8">
-        <v>99.8627212335367</v>
+        <v>299.591797</v>
       </c>
       <c r="I8">
-        <v>0.204734462239042</v>
+        <v>0.1815821327429069</v>
       </c>
       <c r="J8">
-        <v>0.204734462239042</v>
+        <v>0.1815821327429069</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>38.1103501560032</v>
+        <v>45.87732766666667</v>
       </c>
       <c r="N8">
-        <v>38.1103501560032</v>
+        <v>137.631983</v>
       </c>
       <c r="O8">
-        <v>0.2602988417389547</v>
+        <v>0.2679264121734788</v>
       </c>
       <c r="P8">
-        <v>0.2602988417389547</v>
+        <v>0.2679264121734788</v>
       </c>
       <c r="Q8">
-        <v>3805.80327374142</v>
+        <v>4581.490345738162</v>
       </c>
       <c r="R8">
-        <v>3805.80327374142</v>
+        <v>41233.41311164346</v>
       </c>
       <c r="S8">
-        <v>0.05329214338487039</v>
+        <v>0.04865064934061542</v>
       </c>
       <c r="T8">
-        <v>0.05329214338487039</v>
+        <v>0.04865064934061542</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>99.8627212335367</v>
+        <v>99.86393233333332</v>
       </c>
       <c r="H9">
-        <v>99.8627212335367</v>
+        <v>299.591797</v>
       </c>
       <c r="I9">
-        <v>0.204734462239042</v>
+        <v>0.1815821327429069</v>
       </c>
       <c r="J9">
-        <v>0.204734462239042</v>
+        <v>0.1815821327429069</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>18.8242286012478</v>
+        <v>19.136526</v>
       </c>
       <c r="N9">
-        <v>18.8242286012478</v>
+        <v>57.409578</v>
       </c>
       <c r="O9">
-        <v>0.1285720252235012</v>
+        <v>0.1117584875452494</v>
       </c>
       <c r="P9">
-        <v>0.1285720252235012</v>
+        <v>0.1117584875452494</v>
       </c>
       <c r="Q9">
-        <v>1879.838693242777</v>
+        <v>1911.048737559074</v>
       </c>
       <c r="R9">
-        <v>1879.838693242777</v>
+        <v>17199.43863803166</v>
       </c>
       <c r="S9">
-        <v>0.02632312444311806</v>
+        <v>0.02029334452058799</v>
       </c>
       <c r="T9">
-        <v>0.02632312444311806</v>
+        <v>0.02029334452058799</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>331.556686057303</v>
+        <v>368.4456226666667</v>
       </c>
       <c r="H10">
-        <v>331.556686057303</v>
+        <v>1105.336868</v>
       </c>
       <c r="I10">
-        <v>0.6797439423161286</v>
+        <v>0.6699429954379058</v>
       </c>
       <c r="J10">
-        <v>0.6797439423161286</v>
+        <v>0.6699429954379058</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>45.8488916761922</v>
+        <v>62.49926866666667</v>
       </c>
       <c r="N10">
-        <v>45.8488916761922</v>
+        <v>187.497806</v>
       </c>
       <c r="O10">
-        <v>0.3131541260963121</v>
+        <v>0.364999568828264</v>
       </c>
       <c r="P10">
-        <v>0.3131541260963121</v>
+        <v>0.364999568828264</v>
       </c>
       <c r="Q10">
-        <v>15201.50658355855</v>
+        <v>23027.58196010129</v>
       </c>
       <c r="R10">
-        <v>15201.50658355855</v>
+        <v>207248.2376409117</v>
       </c>
       <c r="S10">
-        <v>0.2128646202252692</v>
+        <v>0.2445289044743513</v>
       </c>
       <c r="T10">
-        <v>0.2128646202252692</v>
+        <v>0.2445289044743513</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>331.556686057303</v>
+        <v>368.4456226666667</v>
       </c>
       <c r="H11">
-        <v>331.556686057303</v>
+        <v>1105.336868</v>
       </c>
       <c r="I11">
-        <v>0.6797439423161286</v>
+        <v>0.6699429954379058</v>
       </c>
       <c r="J11">
-        <v>0.6797439423161286</v>
+        <v>0.6699429954379058</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>43.626517030976</v>
+        <v>43.717953</v>
       </c>
       <c r="N11">
-        <v>43.626517030976</v>
+        <v>131.153859</v>
       </c>
       <c r="O11">
-        <v>0.297975006941232</v>
+        <v>0.2553155314530077</v>
       </c>
       <c r="P11">
-        <v>0.297975006941232</v>
+        <v>0.2553155314530077</v>
       </c>
       <c r="Q11">
-        <v>14464.66341101289</v>
+        <v>16107.68841479707</v>
       </c>
       <c r="R11">
-        <v>14464.66341101289</v>
+        <v>144969.1957331736</v>
       </c>
       <c r="S11">
-        <v>0.2025467059299088</v>
+        <v>0.1710468519234488</v>
       </c>
       <c r="T11">
-        <v>0.2025467059299088</v>
+        <v>0.1710468519234488</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>331.556686057303</v>
+        <v>368.4456226666667</v>
       </c>
       <c r="H12">
-        <v>331.556686057303</v>
+        <v>1105.336868</v>
       </c>
       <c r="I12">
-        <v>0.6797439423161286</v>
+        <v>0.6699429954379058</v>
       </c>
       <c r="J12">
-        <v>0.6797439423161286</v>
+        <v>0.6699429954379058</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>38.1103501560032</v>
+        <v>45.87732766666667</v>
       </c>
       <c r="N12">
-        <v>38.1103501560032</v>
+        <v>137.631983</v>
       </c>
       <c r="O12">
-        <v>0.2602988417389547</v>
+        <v>0.2679264121734788</v>
       </c>
       <c r="P12">
-        <v>0.2602988417389547</v>
+        <v>0.2679264121734788</v>
       </c>
       <c r="Q12">
-        <v>12635.74140220784</v>
+        <v>16903.3005584277</v>
       </c>
       <c r="R12">
-        <v>12635.74140220784</v>
+        <v>152129.7050258493</v>
       </c>
       <c r="S12">
-        <v>0.1769365608639591</v>
+        <v>0.1794954231284314</v>
       </c>
       <c r="T12">
-        <v>0.1769365608639591</v>
+        <v>0.1794954231284314</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>331.556686057303</v>
+        <v>368.4456226666667</v>
       </c>
       <c r="H13">
-        <v>331.556686057303</v>
+        <v>1105.336868</v>
       </c>
       <c r="I13">
-        <v>0.6797439423161286</v>
+        <v>0.6699429954379058</v>
       </c>
       <c r="J13">
-        <v>0.6797439423161286</v>
+        <v>0.6699429954379058</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>18.8242286012478</v>
+        <v>19.136526</v>
       </c>
       <c r="N13">
-        <v>18.8242286012478</v>
+        <v>57.409578</v>
       </c>
       <c r="O13">
-        <v>0.1285720252235012</v>
+        <v>0.1117584875452494</v>
       </c>
       <c r="P13">
-        <v>0.1285720252235012</v>
+        <v>0.1117584875452494</v>
       </c>
       <c r="Q13">
-        <v>6241.298852614821</v>
+        <v>7050.769237746857</v>
       </c>
       <c r="R13">
-        <v>6241.298852614821</v>
+        <v>63456.92313972171</v>
       </c>
       <c r="S13">
-        <v>0.08739605529699142</v>
+        <v>0.07487181591167427</v>
       </c>
       <c r="T13">
-        <v>0.08739605529699142</v>
+        <v>0.07487181591167427</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>14.6459806561125</v>
+        <v>14.80496566666667</v>
       </c>
       <c r="H14">
-        <v>14.6459806561125</v>
+        <v>44.414897</v>
       </c>
       <c r="I14">
-        <v>0.03002658986810797</v>
+        <v>0.02691980155523597</v>
       </c>
       <c r="J14">
-        <v>0.03002658986810797</v>
+        <v>0.02691980155523597</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>45.8488916761922</v>
+        <v>62.49926866666667</v>
       </c>
       <c r="N14">
-        <v>45.8488916761922</v>
+        <v>187.497806</v>
       </c>
       <c r="O14">
-        <v>0.3131541260963121</v>
+        <v>0.364999568828264</v>
       </c>
       <c r="P14">
-        <v>0.3131541260963121</v>
+        <v>0.364999568828264</v>
       </c>
       <c r="Q14">
-        <v>671.5019805937084</v>
+        <v>925.299526801776</v>
       </c>
       <c r="R14">
-        <v>671.5019805937084</v>
+        <v>8327.695741215985</v>
       </c>
       <c r="S14">
-        <v>0.00940295050979973</v>
+        <v>0.009825715960603561</v>
       </c>
       <c r="T14">
-        <v>0.00940295050979973</v>
+        <v>0.009825715960603559</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>14.6459806561125</v>
+        <v>14.80496566666667</v>
       </c>
       <c r="H15">
-        <v>14.6459806561125</v>
+        <v>44.414897</v>
       </c>
       <c r="I15">
-        <v>0.03002658986810797</v>
+        <v>0.02691980155523597</v>
       </c>
       <c r="J15">
-        <v>0.03002658986810797</v>
+        <v>0.02691980155523597</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>43.626517030976</v>
+        <v>43.717953</v>
       </c>
       <c r="N15">
-        <v>43.626517030976</v>
+        <v>131.153859</v>
       </c>
       <c r="O15">
-        <v>0.297975006941232</v>
+        <v>0.2553155314530077</v>
       </c>
       <c r="P15">
-        <v>0.297975006941232</v>
+        <v>0.2553155314530077</v>
       </c>
       <c r="Q15">
-        <v>638.9531245292369</v>
+        <v>647.242793181947</v>
       </c>
       <c r="R15">
-        <v>638.9531245292369</v>
+        <v>5825.185138637524</v>
       </c>
       <c r="S15">
-        <v>0.008947173324370996</v>
+        <v>0.006873043440684574</v>
       </c>
       <c r="T15">
-        <v>0.008947173324370996</v>
+        <v>0.006873043440684574</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>14.6459806561125</v>
+        <v>14.80496566666667</v>
       </c>
       <c r="H16">
-        <v>14.6459806561125</v>
+        <v>44.414897</v>
       </c>
       <c r="I16">
-        <v>0.03002658986810797</v>
+        <v>0.02691980155523597</v>
       </c>
       <c r="J16">
-        <v>0.03002658986810797</v>
+        <v>0.02691980155523597</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>38.1103501560032</v>
+        <v>45.87732766666667</v>
       </c>
       <c r="N16">
-        <v>38.1103501560032</v>
+        <v>137.631983</v>
       </c>
       <c r="O16">
-        <v>0.2602988417389547</v>
+        <v>0.2679264121734788</v>
       </c>
       <c r="P16">
-        <v>0.2602988417389547</v>
+        <v>0.2679264121734788</v>
       </c>
       <c r="Q16">
-        <v>558.1634511824968</v>
+        <v>679.212260983417</v>
       </c>
       <c r="R16">
-        <v>558.1634511824968</v>
+        <v>6112.910348850753</v>
       </c>
       <c r="S16">
-        <v>0.007815886564039138</v>
+        <v>0.007212525847116408</v>
       </c>
       <c r="T16">
-        <v>0.007815886564039138</v>
+        <v>0.007212525847116407</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>14.6459806561125</v>
+        <v>14.80496566666667</v>
       </c>
       <c r="H17">
-        <v>14.6459806561125</v>
+        <v>44.414897</v>
       </c>
       <c r="I17">
-        <v>0.03002658986810797</v>
+        <v>0.02691980155523597</v>
       </c>
       <c r="J17">
-        <v>0.03002658986810797</v>
+        <v>0.02691980155523597</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>18.8242286012478</v>
+        <v>19.136526</v>
       </c>
       <c r="N17">
-        <v>18.8242286012478</v>
+        <v>57.409578</v>
       </c>
       <c r="O17">
-        <v>0.1285720252235012</v>
+        <v>0.1117584875452494</v>
       </c>
       <c r="P17">
-        <v>0.1285720252235012</v>
+        <v>0.1117584875452494</v>
       </c>
       <c r="Q17">
-        <v>275.6992879601149</v>
+        <v>283.315610409274</v>
       </c>
       <c r="R17">
-        <v>275.6992879601149</v>
+        <v>2549.840493683466</v>
       </c>
       <c r="S17">
-        <v>0.003860579469898103</v>
+        <v>0.003008516306831425</v>
       </c>
       <c r="T17">
-        <v>0.003860579469898103</v>
+        <v>0.003008516306831425</v>
       </c>
     </row>
   </sheetData>
